--- a/hominfoJLeague.xlsx
+++ b/hominfoJLeague.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\letenok\Documents\work\Flashscore\streaks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A97E74F-81D9-4EE8-B730-9AF3F4EC8A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B8065A-043E-4A79-B99B-08732549E626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1231,22 +1231,23 @@
   <dimension ref="A1:EF21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="17" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="18" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="23.77734375" bestFit="1" customWidth="1"/>
     <col min="40" max="41" width="25.5546875" bestFit="1" customWidth="1"/>
     <col min="42" max="43" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -8221,413 +8222,413 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:136" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="18" spans="1:136" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>14</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="Q18" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R18" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="S18" t="s">
+      <c r="S18" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="T18" t="s">
+      <c r="T18" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="U18" t="s">
+      <c r="U18" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="V18" t="s">
+      <c r="V18" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="W18" t="s">
+      <c r="W18" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="X18" t="s">
+      <c r="X18" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Y18" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="Z18" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AA18" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AB18" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AC18" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AD18" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AE18" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AF18" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AG18" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AH18" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="AI18" t="s">
+      <c r="AI18" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="AJ18" t="s">
+      <c r="AJ18" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AK18" t="s">
+      <c r="AK18" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AL18" t="s">
+      <c r="AL18" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="AM18" t="s">
+      <c r="AM18" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="AN18" t="s">
+      <c r="AN18" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="AO18" t="s">
+      <c r="AO18" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="AP18" t="s">
+      <c r="AP18" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="AQ18" t="s">
+      <c r="AQ18" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AR18" t="s">
+      <c r="AR18" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AS18" t="s">
+      <c r="AS18" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="AT18" t="s">
-        <v>153</v>
-      </c>
-      <c r="AU18" t="s">
+      <c r="AT18" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU18" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="AV18" t="s">
+      <c r="AV18" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="AW18" t="s">
+      <c r="AW18" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="AX18" t="s">
-        <v>164</v>
-      </c>
-      <c r="AY18" t="s">
+      <c r="AX18" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AY18" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="AZ18" t="s">
+      <c r="AZ18" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="BA18" t="s">
-        <v>153</v>
-      </c>
-      <c r="BB18" t="s">
-        <v>153</v>
-      </c>
-      <c r="BC18" t="s">
-        <v>153</v>
-      </c>
-      <c r="BD18" t="s">
-        <v>153</v>
-      </c>
-      <c r="BE18" t="s">
-        <v>163</v>
-      </c>
-      <c r="BF18" t="s">
-        <v>163</v>
-      </c>
-      <c r="BG18" t="s">
-        <v>163</v>
-      </c>
-      <c r="BH18" t="s">
-        <v>163</v>
-      </c>
-      <c r="BI18" t="s">
-        <v>167</v>
-      </c>
-      <c r="BJ18" t="s">
-        <v>172</v>
-      </c>
-      <c r="BK18" t="s">
+      <c r="BA18" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB18" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="BC18" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="BD18" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="BE18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="BF18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="BG18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="BH18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="BI18" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="BJ18" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BK18" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="BL18" t="s">
+      <c r="BL18" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="BM18" t="s">
+      <c r="BM18" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="BN18" t="s">
+      <c r="BN18" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="BO18" t="s">
+      <c r="BO18" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="BP18" t="s">
+      <c r="BP18" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="BQ18" t="s">
+      <c r="BQ18" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="BR18" t="s">
+      <c r="BR18" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="BS18" t="s">
+      <c r="BS18" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="BT18" t="s">
+      <c r="BT18" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="BU18" t="s">
-        <v>172</v>
-      </c>
-      <c r="BV18" t="s">
+      <c r="BU18" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BV18" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="BW18" t="s">
-        <v>172</v>
-      </c>
-      <c r="BX18" t="s">
-        <v>172</v>
-      </c>
-      <c r="BY18" t="s">
-        <v>167</v>
-      </c>
-      <c r="BZ18" t="s">
-        <v>172</v>
-      </c>
-      <c r="CA18" t="s">
-        <v>172</v>
-      </c>
-      <c r="CB18" t="s">
-        <v>172</v>
-      </c>
-      <c r="CC18" t="s">
+      <c r="BW18" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BX18" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BY18" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="BZ18" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="CA18" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="CB18" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="CC18" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="CD18" t="s">
+      <c r="CD18" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="CE18" t="s">
+      <c r="CE18" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="CF18" t="s">
+      <c r="CF18" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="CG18" t="s">
+      <c r="CG18" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="CH18" t="s">
+      <c r="CH18" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="CI18" t="s">
+      <c r="CI18" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="CJ18" t="s">
+      <c r="CJ18" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CK18" t="s">
+      <c r="CK18" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="CL18" t="s">
+      <c r="CL18" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="CM18" t="s">
+      <c r="CM18" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="CN18" t="s">
+      <c r="CN18" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="CO18" t="s">
+      <c r="CO18" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="CP18" t="s">
+      <c r="CP18" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="CQ18" t="s">
+      <c r="CQ18" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="CR18" t="s">
+      <c r="CR18" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="CS18" t="s">
-        <v>153</v>
-      </c>
-      <c r="CT18" t="s">
-        <v>153</v>
-      </c>
-      <c r="CU18" t="s">
-        <v>153</v>
-      </c>
-      <c r="CV18" t="s">
-        <v>153</v>
-      </c>
-      <c r="CW18" t="s">
-        <v>164</v>
-      </c>
-      <c r="CX18" t="s">
-        <v>164</v>
-      </c>
-      <c r="CY18" t="s">
-        <v>163</v>
-      </c>
-      <c r="CZ18" t="s">
-        <v>163</v>
-      </c>
-      <c r="DA18" t="s">
-        <v>167</v>
-      </c>
-      <c r="DB18" t="s">
-        <v>167</v>
-      </c>
-      <c r="DC18" t="s">
-        <v>167</v>
-      </c>
-      <c r="DD18" t="s">
+      <c r="CS18" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="CT18" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="CU18" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="CV18" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="CW18" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="CX18" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="CY18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="CZ18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="DA18" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="DB18" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="DC18" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="DD18" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="DE18" t="s">
+      <c r="DE18" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="DF18" t="s">
+      <c r="DF18" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="DG18" t="s">
+      <c r="DG18" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="DH18" t="s">
+      <c r="DH18" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="DI18" t="s">
-        <v>167</v>
-      </c>
-      <c r="DJ18" t="s">
-        <v>167</v>
-      </c>
-      <c r="DK18" t="s">
-        <v>167</v>
-      </c>
-      <c r="DL18" t="s">
-        <v>172</v>
-      </c>
-      <c r="DM18" t="s">
-        <v>153</v>
-      </c>
-      <c r="DN18" t="s">
-        <v>153</v>
-      </c>
-      <c r="DO18" t="s">
-        <v>153</v>
-      </c>
-      <c r="DP18" t="s">
-        <v>153</v>
-      </c>
-      <c r="DQ18" t="s">
-        <v>167</v>
-      </c>
-      <c r="DR18" t="s">
-        <v>167</v>
-      </c>
-      <c r="DS18" t="s">
-        <v>167</v>
-      </c>
-      <c r="DT18" t="s">
+      <c r="DI18" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="DJ18" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="DK18" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="DL18" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="DM18" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="DN18" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="DO18" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="DP18" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="DQ18" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="DR18" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="DS18" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="DT18" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="DU18" t="s">
+      <c r="DU18" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="DV18" t="s">
+      <c r="DV18" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="DW18" t="s">
+      <c r="DW18" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="DX18" t="s">
+      <c r="DX18" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="DY18" t="s">
-        <v>167</v>
-      </c>
-      <c r="DZ18" t="s">
-        <v>167</v>
-      </c>
-      <c r="EA18" t="s">
-        <v>167</v>
-      </c>
-      <c r="EB18" t="s">
-        <v>172</v>
-      </c>
-      <c r="EC18" t="s">
-        <v>153</v>
-      </c>
-      <c r="ED18" t="s">
-        <v>153</v>
-      </c>
-      <c r="EE18" t="s">
-        <v>153</v>
-      </c>
-      <c r="EF18" t="s">
+      <c r="DY18" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="DZ18" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="EA18" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="EB18" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="EC18" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="ED18" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="EE18" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="EF18" s="4" t="s">
         <v>153</v>
       </c>
     </row>
